--- a/medicine/Enfance/Leo_Lionni/Leo_Lionni.xlsx
+++ b/medicine/Enfance/Leo_Lionni/Leo_Lionni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leo Lionni (de prénom initial Léonard) (Amsterdam, 5 mai 1910 - Radda in Chianti, 11 octobre 1999) est un écrivain italien naturalisé américain, illustrateur, et auteur d'ouvrages jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est tailleur de diamants et sa mère est chanteuse soprano. Dès son plus jeune âge, il manifeste une passion pour la nature. Cette curiosité pour le monde végétal, minéral et animal ne le quittera plus. Bientôt, ses parents partent pour les États-Unis, et Léo, 12 ans, vit pendant deux ans chez ses grands parents à Bruxelles.
 Ensuite il rejoint ses parents et retourne, un peu plus tard, avec eux en Europe à Gênes.
@@ -520,7 +534,7 @@
 Le premier livre de Leo Lionni, Petit-Bleu et Petit-Jaune paraît en 1959. Cet ouvrage est devenu un classique.
 Dans tous ses livres pour la jeunesse, Leo Lionni s'efforce d'unir le texte à l'image.
 En 1962, il retourne en Italie, se consacre à la peinture, à la sculpture et réalise une Botanique parallèle (1976) imaginaire. Chaque automne, il produit en un mois un album de trente-deux pages.
-En 1967, lors de la première édition de la Biennale d'illustration de Bratislava, il est récompensé par la Pomme d'Or de Bratislava[1] pour son album Pilotin.
+En 1967, lors de la première édition de la Biennale d'illustration de Bratislava, il est récompensé par la Pomme d'Or de Bratislava pour son album Pilotin.
 Il meurt en 1999 dans sa propriété toscane des suites de la maladie de Parkinson.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Ouvrages parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petit-Bleu et Petit-Jaune (original : Little Blue and Little Yellow), 1959
 Pouce par pouce (original : Inch by Inch), 1962
@@ -614,15 +630,17 @@
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> : Pomme d'Or de Bratislava 1967[1], lors de la Biennale d'illustration de Bratislava, pour Pilotin
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> : Pomme d'Or de Bratislava 1967, lors de la Biennale d'illustration de Bratislava, pour Pilotin
 Finaliste Médaille Caldecott 1961 pour Pouce par pouce (Inch by Inch)
 Finaliste Médaille Caldecott 1964 pour Pilotin (Swimmy)
  Deutscher Jugendliteraturpreis 1965 pour Pilotin (Swimmy)
 Finaliste Médaille Caldecott 1968 pour Frédéric (Frederick)
 Finaliste Médaille Caldecott 1970 pour Alexandre et la souris mécanique (Alexander and the Wind-Up Mouse) 
-Médaille AIGA (American Institute of Graphic Arts) 1984[2]</t>
+Médaille AIGA (American Institute of Graphic Arts) 1984</t>
         </is>
       </c>
     </row>
